--- a/ListasDatos/Camacho Juárez Sergio Eduardo_2021.xlsx
+++ b/ListasDatos/Camacho Juárez Sergio Eduardo_2021.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="670">
   <si>
     <t>NC</t>
   </si>
@@ -957,7 +957,7 @@
     <t>marcosflow285@gmail.com</t>
   </si>
   <si>
-    <t>jesussamuelgarcialeon96@gmail.com</t>
+    <t>erikaleonpalacios7@gmail.com</t>
   </si>
   <si>
     <t>roger123459876@gmail.com</t>
@@ -1104,7 +1104,7 @@
     <t>MIGUEL ÁNGEL RAMÍREZ MORENO</t>
   </si>
   <si>
-    <t>GUADALUPE ITSEL TEPEPA ROSAS</t>
+    <t>GUADALUPE ITZEL TEPEPA ROSAS</t>
   </si>
   <si>
     <t>JUAN MANUEL CANTELLAN CARRERA</t>
@@ -1137,7 +1137,7 @@
     <t>KARINA BAEZA HERNÁNDEZ</t>
   </si>
   <si>
-    <t>MIRIAM MOLINA MORALES MOLINA MORALES</t>
+    <t>MIRIAM MOLINA MORALES</t>
   </si>
   <si>
     <t>ANTONIA ROCIO RODRÍGUEZ SANCHEZ</t>
@@ -1206,6 +1206,9 @@
     <t>manuel.flomat@hotmail.com</t>
   </si>
   <si>
+    <t>Kelly_rivera_vargas@gmail.com</t>
+  </si>
+  <si>
     <t>jesus_ramirez_flores@outlook.com</t>
   </si>
   <si>
@@ -1819,6 +1822,9 @@
   </si>
   <si>
     <t>ORESTE JOSÉ AGUSTÍN GARCÍA RIOS</t>
+  </si>
+  <si>
+    <t>TOMAS ROJAS DEL CARMEN</t>
   </si>
   <si>
     <t>AXEL VELAZQUEZ SILVA</t>
@@ -3524,7 +3530,7 @@
         <v>382</v>
       </c>
       <c r="J2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3556,7 +3562,7 @@
         <v>383</v>
       </c>
       <c r="J3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3585,7 +3591,7 @@
         <v>384</v>
       </c>
       <c r="J4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3614,7 +3620,7 @@
         <v>385</v>
       </c>
       <c r="J5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3672,7 +3678,7 @@
         <v>386</v>
       </c>
       <c r="J7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3704,7 +3710,7 @@
         <v>387</v>
       </c>
       <c r="J8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3733,7 +3739,7 @@
         <v>388</v>
       </c>
       <c r="J9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3765,7 +3771,7 @@
         <v>389</v>
       </c>
       <c r="J10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3797,7 +3803,7 @@
         <v>390</v>
       </c>
       <c r="J11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3829,7 +3835,7 @@
         <v>317</v>
       </c>
       <c r="J12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3858,7 +3864,7 @@
         <v>391</v>
       </c>
       <c r="J13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3887,7 +3893,7 @@
         <v>392</v>
       </c>
       <c r="J14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3919,7 +3925,7 @@
         <v>393</v>
       </c>
       <c r="J15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3951,7 +3957,7 @@
         <v>394</v>
       </c>
       <c r="J16" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3983,7 +3989,7 @@
         <v>395</v>
       </c>
       <c r="J17" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4012,7 +4018,7 @@
         <v>376</v>
       </c>
       <c r="J18" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4037,8 +4043,11 @@
       <c r="H19" t="s">
         <v>377</v>
       </c>
+      <c r="I19" t="s">
+        <v>396</v>
+      </c>
       <c r="J19" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4067,10 +4076,10 @@
         <v>378</v>
       </c>
       <c r="I20" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4099,10 +4108,10 @@
         <v>379</v>
       </c>
       <c r="I21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J21" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4134,7 +4143,7 @@
         <v>327</v>
       </c>
       <c r="J22" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4160,10 +4169,10 @@
         <v>381</v>
       </c>
       <c r="I23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J23" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -4231,25 +4240,25 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="J2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4260,25 +4269,25 @@
         <v>259</v>
       </c>
       <c r="C3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I3" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="J3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4286,25 +4295,25 @@
         <v>19330051920360</v>
       </c>
       <c r="B4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I4" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4312,31 +4321,31 @@
         <v>19330051920456</v>
       </c>
       <c r="B5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I5" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="J5" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4344,31 +4353,31 @@
         <v>19330051920362</v>
       </c>
       <c r="B6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I6" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="J6" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4376,31 +4385,31 @@
         <v>19330051920426</v>
       </c>
       <c r="B7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C7" t="s">
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="J7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4408,31 +4417,31 @@
         <v>19330051920366</v>
       </c>
       <c r="B8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I8" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="J8" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4446,25 +4455,25 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F9" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G9" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I9" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="J9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4478,25 +4487,25 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H10" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I10" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="J10" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4510,25 +4519,25 @@
         <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E11" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F11" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G11" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H11" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I11" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="J11" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4539,28 +4548,28 @@
         <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D12" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E12" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H12" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="I12" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="J12" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4568,31 +4577,31 @@
         <v>19330051920371</v>
       </c>
       <c r="B13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E13" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F13" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G13" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H13" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I13" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="J13" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4606,25 +4615,25 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F14" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G14" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H14" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I14" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="J14" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4638,25 +4647,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E15" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F15" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G15" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H15" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="I15" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="J15" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4667,28 +4676,28 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D16" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E16" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H16" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="I16" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="J16" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4699,28 +4708,28 @@
         <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D17" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E17" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G17" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H17" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I17" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J17" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4731,25 +4740,25 @@
         <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D18" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E18" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F18" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H18" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I18" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="J18" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4760,25 +4769,25 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D19" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E19" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F19" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H19" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="I19" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="J19" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4792,25 +4801,25 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E20" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F20" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G20" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H20" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I20" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="J20" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4824,19 +4833,19 @@
         <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E21" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F21" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H21" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J21" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4850,25 +4859,25 @@
         <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E22" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F22" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G22" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H22" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="I22" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="J22" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4876,25 +4885,25 @@
         <v>19330051920382</v>
       </c>
       <c r="B23" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H23" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="J23" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4905,28 +4914,28 @@
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D24" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E24" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F24" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G24" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H24" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I24" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="J24" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4937,25 +4946,25 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D25" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E25" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F25" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H25" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I25" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="J25" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4969,25 +4978,25 @@
         <v>280</v>
       </c>
       <c r="D26" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F26" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G26" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H26" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I26" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="J26" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4995,31 +5004,31 @@
         <v>19330051920389</v>
       </c>
       <c r="B27" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C27" t="s">
         <v>259</v>
       </c>
       <c r="D27" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E27" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F27" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G27" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H27" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I27" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="J27" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5030,25 +5039,25 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D28" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E28" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F28" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H28" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I28" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="J28" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5062,16 +5071,16 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E29" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F29" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H29" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5079,31 +5088,31 @@
         <v>19330051920391</v>
       </c>
       <c r="B30" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C30" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D30" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E30" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F30" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G30" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H30" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I30" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="J30" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5117,13 +5126,16 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E31" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F31" t="s">
-        <v>554</v>
+        <v>555</v>
+      </c>
+      <c r="H31" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -5134,25 +5146,25 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D32" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E32" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F32" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H32" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="I32" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J32" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -5163,28 +5175,28 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D33" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E33" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F33" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G33" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H33" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="I33" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="J33" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -5195,28 +5207,28 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D34" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E34" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F34" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G34" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H34" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="I34" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="J34" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -5224,31 +5236,31 @@
         <v>19330051920369</v>
       </c>
       <c r="B35" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C35" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D35" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E35" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F35" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G35" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H35" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="I35" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="J35" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -5256,28 +5268,28 @@
         <v>18330051920188</v>
       </c>
       <c r="B36" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C36" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D36" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E36" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F36" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H36" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="I36" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="J36" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -5285,31 +5297,31 @@
         <v>19330051920398</v>
       </c>
       <c r="B37" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E37" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F37" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G37" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H37" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="I37" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J37" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -5317,31 +5329,31 @@
         <v>19330051920399</v>
       </c>
       <c r="B38" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C38" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D38" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E38" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F38" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G38" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H38" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="I38" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="J38" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
